--- a/server/Book1.xlsx
+++ b/server/Book1.xlsx
@@ -159,7 +159,7 @@
     <t>Overfitting can be seen in machine learning when a statistical model describes random error or noise instead of the underlying relationship. It is usually observed when a model is excessively complex, having too many parameters relative to the number of training data points. This results in poor performance, as the model has been overfitted.</t>
   </si>
   <si>
-    <t>Overfitting in machine learning can be seen when a statistical model describes random error or noise instead of the underlying relationship. It is often observed when a model is overly complex, having too many parameters relative to the number of training data points. However, this can be avoided by ensuring that the model is not overfitted, resulting in improved performance and accuracy.</t>
+    <t>Overfitting in machine learning can be seen when a statistical model describes random error or noise instead of the underlying relationship. It is often observed when a model is overly complex, having too many parameters relative to the number of training data points. However, this can be avoided by ensuring that the model is not excessively complex, resulting in improved performance and accuracy.</t>
   </si>
 </sst>
 </file>

--- a/server/Book1.xlsx
+++ b/server/Book1.xlsx
@@ -1,22 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD329AB5-2581-4380-905F-B82E2978826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="6" name="Fixed" state="visible" r:id="rId4"/>
-    <sheet sheetId="5" name="Build" state="visible" r:id="rId5"/>
-    <sheet sheetId="7" name="If, Then" state="visible" r:id="rId6"/>
+    <sheet name="If, Then" sheetId="1" r:id="rId1"/>
+    <sheet name="Build" sheetId="3" r:id="rId2"/>
+    <sheet name="Fixed" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+  <si>
+    <t>Final Output</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>If {C} &lt;3</t>
+  </si>
+  <si>
+    <t>If {C} =&gt; 3 to &lt;8</t>
+  </si>
+  <si>
+    <t>If C &gt; 8</t>
+  </si>
+  <si>
+    <t>If G &lt; 8</t>
+  </si>
+  <si>
+    <t>If G &gt;=8</t>
+  </si>
+  <si>
+    <t>Input sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What quality score would you give this writing on 1 to 10? {B} </t>
+  </si>
+  <si>
+    <t>Improve this sentence by uplifting it. {B}</t>
+  </si>
+  <si>
+    <t>Improve this sentence by enhancing it. {B}</t>
+  </si>
+  <si>
+    <t>Repair this sentence by correcting it. {B}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What quality score would you give this writing on 1 to 10? </t>
+  </si>
+  <si>
+    <t>Repair this sentence by correcting it. {G}</t>
+  </si>
+  <si>
+    <t>Improve this sentence by uplifting it. {G}</t>
+  </si>
+  <si>
+    <t>Overfitting can be seen in machine learning when a statistical model describes random error or noise instead of the underlying relationship. Overfitting is usually observed when a model is excessively complex. It happens because of having too many parameters concerning the number of training data types. The model displays poor performance, which has been overfitted.</t>
+  </si>
+  <si>
+    <t>Final Output Sentence</t>
+  </si>
+  <si>
+    <t>Input Sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which 2 opposing ideas are at the heart of this sentence?
+</t>
+  </si>
+  <si>
+    <t>Which 2 opposing feelings are at the heart of this sentence?</t>
+  </si>
+  <si>
+    <t>I am a developer</t>
+  </si>
+  <si>
+    <t>Darshan is a good client</t>
+  </si>
   <si>
     <t>DATA FIELDS</t>
   </si>
@@ -42,137 +113,32 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>Input Sentence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which 2 opposing {Role} are at the heart of this {Situation}? 
+    <t xml:space="preserve">Which 2 opposing {Role} are at the heart of this {Situation}? {B}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Which 2 complementary {Roles} are at the heart of this {Situation}? 
+    <t xml:space="preserve">Which 2 complementary {Roles} are at the heart of this {Situation}? {B} 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Which 2 creative {Roles) are at the heart of this {Situation}? 
+    <t xml:space="preserve">Which 2 creative {Roles) are at the heart of this {Situation}? {B}
 </t>
   </si>
   <si>
     <t>To be or not to be, that is the question</t>
-  </si>
-  <si>
-    <t>There is no answer to this question as it is a quote from William Shakespeare's play Hamlet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ruler: responsible for making decisions and setting the direction of the kingdom. 
-2. Subject: responsible for following the ruler's orders and upholding the laws of the kingdom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Storyteller 
-2. Actor/Performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ruler: responsible for making decisions and setting the direction of the kingdom.
-2. Subject: responsible for following the ruler's orders and upholding the laws of the kingdom.</t>
-  </si>
-  <si>
-    <t>Final Output Sentence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which 2 opposing ideas are at the heart of this sentence? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which 2 opposing feelings are at the heart of this sentence? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Curiosity vs. Apathy
-2. Knowledge vs. Ignorance</t>
-  </si>
-  <si>
-    <t>I am a student.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Hope vs. Despair
-2. Optimism vs. Pessimism</t>
-  </si>
-  <si>
-    <t>Darshan is a good client</t>
-  </si>
-  <si>
-    <t>Final Output</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>If {C} &lt;3</t>
-  </si>
-  <si>
-    <t>If {C} =&gt; 3 to &lt;8</t>
-  </si>
-  <si>
-    <t>If C &gt; 8</t>
-  </si>
-  <si>
-    <t>If G &lt; 8</t>
-  </si>
-  <si>
-    <t>If G &gt;=8</t>
-  </si>
-  <si>
-    <t>Input sentence</t>
-  </si>
-  <si>
-    <t>What quality score would you give this writing on 1 to 10? {B}</t>
-  </si>
-  <si>
-    <t>Improve this sentence by uplifting it. {B}</t>
-  </si>
-  <si>
-    <t>Improve this sentence by enhancing it. {B}</t>
-  </si>
-  <si>
-    <t>Repair this sentence by correcting it. {B}</t>
-  </si>
-  <si>
-    <t>What quality score would you give this writing on 1 to 10?</t>
-  </si>
-  <si>
-    <t>Repair this sentence by correcting it. {G}</t>
-  </si>
-  <si>
-    <t>Improve this sentence by uplifting it. {G}</t>
-  </si>
-  <si>
-    <t>Final answer from whichever column has processed the information on the right most column</t>
-  </si>
-  <si>
-    <t>Overfitting can be seen in machine learning when a statistical model describes random error or noise instead of the underlying relationship. Overfitting is usually observed when a model is excessively complex. It happens because of having too many parameters concerning the number of training data types. The model displays poor performance, which has been overfitted.</t>
-  </si>
-  <si>
-    <t>Green and Blue</t>
-  </si>
-  <si>
-    <t>Overfitting can be seen in machine learning when a statistical model describes random error or noise instead of the underlying relationship. It is usually observed when a model is excessively complex, having too many parameters relative to the number of training data points. This results in poor performance, as the model has been overfitted.</t>
-  </si>
-  <si>
-    <t>Overfitting in machine learning can be seen when a statistical model describes random error or noise instead of the underlying relationship. It is often observed when a model is overly complex, having too many parameters relative to the number of training data points. However, this can be avoided by ensuring that the model is not excessively complex, resulting in improved performance and accuracy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,7 +200,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -246,7 +212,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -293,23 +259,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -345,23 +294,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,243 +444,235 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="135" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" ht="165" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" ht="60" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="150" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
+    <row r="1" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/Book1.xlsx
+++ b/server/Book1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD329AB5-2581-4380-905F-B82E2978826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065363F9-E2FE-407F-9F42-B6C841200B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="If, Then" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Final Output</t>
   </si>
@@ -83,10 +83,26 @@
     <t>Which 2 opposing feelings are at the heart of this sentence?</t>
   </si>
   <si>
+    <t>1. Frustration vs. Satisfaction
+2. Anxiety vs. Confidence</t>
+  </si>
+  <si>
     <t>I am a developer</t>
   </si>
   <si>
+    <t>1. Writing code vs. not writing code
+2. Creating software vs. not creating software</t>
+  </si>
+  <si>
+    <t>1. Hope vs. Despair
+2. Optimism vs. Pessimism</t>
+  </si>
+  <si>
     <t>Darshan is a good client</t>
+  </si>
+  <si>
+    <t>1. Good vs. Bad
+2. Client vs. Non-Client</t>
   </si>
   <si>
     <t>DATA FIELDS</t>
@@ -126,6 +142,16 @@
   </si>
   <si>
     <t>To be or not to be, that is the question</t>
+  </si>
+  <si>
+    <t>There is no answer to this question as it is a quote from Shakespeare's play Hamlet.</t>
+  </si>
+  <si>
+    <t>King and Queen.</t>
+  </si>
+  <si>
+    <t>1. Actor 
+2. Playwright</t>
   </si>
 </sst>
 </file>
@@ -448,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,22 +582,38 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -583,17 +625,17 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="C8:E8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -601,10 +643,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -612,10 +654,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -623,10 +665,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -634,10 +676,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -656,23 +698,29 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/Book1.xlsx
+++ b/server/Book1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4A2644-1A6F-4FD1-82E6-A6668AF8E67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="4" name="If, Then" state="visible" r:id="rId4"/>
-    <sheet sheetId="5" name="Build" state="visible" r:id="rId5"/>
-    <sheet sheetId="6" name="Fixed" state="visible" r:id="rId6"/>
+    <sheet name="If, Then" sheetId="4" r:id="rId1"/>
+    <sheet name="Build" sheetId="5" r:id="rId2"/>
+    <sheet name="Fixed" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
   <si>
     <t>Role</t>
   </si>
@@ -33,6 +34,12 @@
     <t>ABC</t>
   </si>
   <si>
+    <t>SystemRole</t>
+  </si>
+  <si>
+    <t>You are a creative writer.</t>
+  </si>
+  <si>
     <t>Final Output</t>
   </si>
   <si>
@@ -75,77 +82,29 @@
     <t xml:space="preserve">Improve this sentence by uplifting it. </t>
   </si>
   <si>
-    <t>"Focusing doesn't mean saying yes to the one thing you have to focus on; it means saying no to the countless other great ideas that are out there. It's a matter of being selective and making wise choices. I'm just as proud of the things we haven't done as the things we have done. Innovation is about having the courage to say 'no' to 1,000 things." - Steve Jobs</t>
-  </si>
-  <si>
     <t>“People think focus means saying yes to the thing you've got to focus on. But that's not what it means at all. It means saying no to the hundred other good ideas that there are. You have to pick carefully.  I'm actually as proud of the things we haven't done as the things I have done. Innovation is saying ‘no’ to 1,000 things.“ Steve Jobs</t>
   </si>
   <si>
-    <t>"People think that focusing means saying yes to the thing you have to focus on, but that's not what it means at all. It means saying no to the hundred other good ideas that are out there. You have to be selective and choose carefully. I'm actually as proud of the things we haven't done as the things we have done. Innovation is saying 'no' to 1,000 things." - Steve Jobs</t>
-  </si>
-  <si>
-    <t>"The power of strategy lies in the ability to discern what not to do" — Michael E. Porter, American economist and founder of strategic management.</t>
-  </si>
-  <si>
     <t>“The essence of strategy is choosing what not to do.“ — Michael E. Porter, American  economist and founder of strategic management</t>
   </si>
   <si>
-    <t>"The essence of strategy is choosing what not to do" — Michael E. Porter, American economist and founder of strategic management.</t>
-  </si>
-  <si>
-    <t>"What focusing means is having the courage and conviction to say no to something that you, with every fiber of your being, believe is an incredible idea; even if it's something that you can't stop thinking about, you still have the strength to turn it down because you are devoted to something else." - Jony Ive on lessons from Steve Jobs</t>
-  </si>
-  <si>
     <t>“What focus means is saying no to something that you with every bone in your body think is a phenomenal idea, and you wake up thinking about it, but you say no to it because you're focusing on something else.“ Jony Ives on lessons from Steve Jobs</t>
   </si>
   <si>
-    <t>"What focusing means is saying no to something that you, with every bone in your body, think is a phenomenal idea; and you wake up thinking about it, but you say no to it because you're focusing on something else." - Jony Ive on lessons from Steve Jobs</t>
-  </si>
-  <si>
-    <t>A well-crafted strategy, informed by Michael Porter's principles, delineates a unique and advantageous territory in which a company can strive to achieve success.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A strategy delineates a territory in which a company seeks to be unique.
+    <t>A strategy delineates a territory in which a company seeks to be unique.
 Michael Porter</t>
   </si>
   <si>
-    <t>A well-defined strategy delineates a unique territory in which a company, guided by Michael Porter's principles, can strive to achieve success.</t>
-  </si>
-  <si>
-    <t>Achieving strategic focus begins with you! Don't be overwhelmed by the multitude of ideas that come your way - instead, take the time to thoughtfully consider each one and act on those that align with your goals.</t>
-  </si>
-  <si>
     <t>Achieving strategic focus doesn't start with the business. It starts with you. Don't feel compelled to act upon every idea that crosses your mind or desk.</t>
   </si>
   <si>
-    <t>Achieving strategic focus doesn't start with the business; it starts with you. Don't feel compelled to act upon every idea that crosses your mind or desk.</t>
-  </si>
-  <si>
-    <t>Embrace the power of singularity and give yourself the freedom to focus on one big goal.</t>
-  </si>
-  <si>
     <t>Allow yourself the freedom to focus on only 1 big goal</t>
   </si>
   <si>
-    <t>Allow yourself the freedom to focus on only one big goal.</t>
-  </si>
-  <si>
-    <t>Are you taking on multiple projects or focusing your energy on the most important one and seeing it through to completion?</t>
-  </si>
-  <si>
     <t>Are you scattering yourself across multiple projects or focusing and following through on the big one?</t>
   </si>
   <si>
-    <t>Are you spreading yourself across multiple projects or focusing and following through on the big one?</t>
-  </si>
-  <si>
-    <t>Do you have a clear vision of your primary overarching goal? What is it?</t>
-  </si>
-  <si>
     <t>Are you truly focused on your primary, overarching goal? What is it?</t>
-  </si>
-  <si>
-    <t>Are you truly focused on your primary overarching goal? What is it?</t>
   </si>
   <si>
     <t>DATA FIELDS</t>
@@ -179,64 +138,64 @@
     <t>Which 2 opposing feelings are at the heart of this sentence? {{B22}}</t>
   </si>
   <si>
-    <t>Appreciation and Gratitude</t>
+    <t>The two opposing feelings at the heart of this sentence are positive and negative. "Darshan is a good client" expresses a positive feeling towards Darshan, but it also implies that there may be bad clients as well, which is a negative feeling.</t>
   </si>
   <si>
     <t>Darshan is a good client.</t>
   </si>
   <si>
-    <t>There are no opposing kings at the heart of this sentence.</t>
-  </si>
-  <si>
-    <t>Satisfaction and uncertainty</t>
-  </si>
-  <si>
-    <t>Steve Jobs and the hundred other good ideas.</t>
-  </si>
-  <si>
-    <t>There are no opposing Kingdoms in this sentence.</t>
-  </si>
-  <si>
-    <t>Gratitude and Appreciation.</t>
-  </si>
-  <si>
-    <t>Appreciation and suspicion</t>
-  </si>
-  <si>
-    <t>Jony Ives and Steve Jobs.</t>
-  </si>
-  <si>
-    <t>The two opposing Kingdoms are Apple and Microsoft.</t>
-  </si>
-  <si>
-    <t>Gratitude and appreciation.</t>
-  </si>
-  <si>
-    <t>The two opposing kings are Michael Porter and the company.</t>
-  </si>
-  <si>
-    <t>The two opposing kingdoms in this sentence are Michael Porter and the Company.</t>
-  </si>
-  <si>
-    <t>Gratitude and Admiration</t>
-  </si>
-  <si>
-    <t>There are no opposing Kings in this sentence.</t>
-  </si>
-  <si>
-    <t>Gratitude and respect.</t>
-  </si>
-  <si>
-    <t>The two opposing kings in this sentence are Freedom and Focus.</t>
-  </si>
-  <si>
-    <t>Freedom and Focus.</t>
-  </si>
-  <si>
-    <t>Gratitude and Respect</t>
-  </si>
-  <si>
-    <t>Appreciation and obligation.</t>
+    <t>There are no opposing Kings mentioned in the sentence "Darshan is a good client."</t>
+  </si>
+  <si>
+    <t>There are no opposing Kingdoms mentioned in the sentence "Darshan is a good client."</t>
+  </si>
+  <si>
+    <t>The two opposing kings at the heart of this sentence are innovation and distraction. Steve Jobs is advocating for the former, emphasizing the importance of saying no to distractions and focusing on innovation.</t>
+  </si>
+  <si>
+    <t>The two opposing kingdoms at the heart of this sentence are innovation and distraction.</t>
+  </si>
+  <si>
+    <t>The two opposing feelings at the heart of this sentence are positive and negative. "Darshan is a good client" expresses a positive sentiment towards Darshan, but it also implies that there may be bad clients as well.</t>
+  </si>
+  <si>
+    <t>The sentence does not refer to any specific kings, but rather to the concept of strategy in general.</t>
+  </si>
+  <si>
+    <t>Without any context or additional information, it is impossible to determine which two opposing kingdoms are at the heart of the sentence.</t>
+  </si>
+  <si>
+    <t>The two opposing kings at the heart of this sentence are the ideas of focus and creativity. Jony Ives is suggesting that Steve Jobs was able to balance these two concepts by saying no to some phenomenal ideas in order to stay focused on a specific goal or project.</t>
+  </si>
+  <si>
+    <t>The two opposing kingdoms at the heart of this sentence are focus and creativity.</t>
+  </si>
+  <si>
+    <t>The sentence does not mention any specific kings. It is a quote by Michael Porter about business strategy.</t>
+  </si>
+  <si>
+    <t>As a language model AI, I don't have the capability to know the sentence you are referring to. Please provide me with the sentence so I can assist you better.</t>
+  </si>
+  <si>
+    <t>The two opposing feelings at the heart of this sentence are positive and negative. "Darshan is a good client" expresses a positive sentiment towards Darshan's behavior as a client, but it also implies that there may be bad clients out there.</t>
+  </si>
+  <si>
+    <t>There are no specific kings mentioned in this sentence.</t>
+  </si>
+  <si>
+    <t>I'm sorry, but I cannot answer this question as there is no sentence provided. Please provide me with a sentence so that I can assist you better.</t>
+  </si>
+  <si>
+    <t>There are no specific kings mentioned in this sentence. It is a metaphorical statement that refers to the idea of being torn between multiple tasks or goals (represented by the "projects") versus concentrating on one main objective (represented by the "big one").</t>
+  </si>
+  <si>
+    <t>There are no specific kingdoms mentioned in this sentence. It is a metaphorical statement that refers to the idea of being torn between multiple tasks or goals (represented by the "projects") versus concentrating on one main objective (represented by the "big one").</t>
+  </si>
+  <si>
+    <t>Without any context or additional information, it is impossible to determine which two opposing kings are at the heart of this sentence.</t>
+  </si>
+  <si>
+    <t>As an AI language model, I cannot determine the answer to this question as there is no context or information provided about the sentence. Please provide more details or context for me to assist you better.</t>
   </si>
   <si>
     <t xml:space="preserve">Which 2 opposing {Role} are at the heart of this {Situation}? {{B}}
@@ -251,81 +210,104 @@
 </t>
   </si>
   <si>
-    <t>There are no opposing Kings at the heart of this Kingdom. Steve Jobs is talking about focus and innovation, not kings.</t>
-  </si>
-  <si>
-    <t>The two complementary Kings at the heart of this Kingdom are Focus and Innovation. Focus is about saying "no" to the many good ideas that come up, while Innovation is about saying "yes" to the one great idea that stands out. Together, these two Kings can help create a successful and prosperous Kingdom.</t>
-  </si>
-  <si>
-    <t>Steve Jobs and his creative vision are at the heart of this Kingdom.</t>
-  </si>
-  <si>
-    <t>The two opposing kings at the heart of this kingdom are King Wisdom and King Ignorance.</t>
-  </si>
-  <si>
-    <t>The two complementary Kings at the heart of this Kingdom are Focus and Innovation. Focus is about saying no to the many good ideas that come up, while Innovation is about saying yes to the one great idea that stands out. Together, these two Kings can help create a successful and prosperous Kingdom.</t>
-  </si>
-  <si>
-    <t>The two creative Kings at the heart of this Kingdom are King Solomon and King David. Both of these Kings were renowned for their wisdom and strategic thinking, which is reflected in the quote from Michael E. Porter.</t>
-  </si>
-  <si>
-    <t>Steve Jobs and Jony Ives.</t>
-  </si>
-  <si>
-    <t>Steve Jobs and Jony Ive.</t>
-  </si>
-  <si>
-    <t>The two opposing Kings at the heart of this Kingdom are Michael Porter and his strategy of delineating a territory in which a company seeks to be unique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. King Michael Porter – the creator of the Porter's Five Forces Model and the father of modern strategic management.
-2. King Steve Jobs – the visionary leader behind Apple Inc. and one of the most influential innovators of our time.</t>
-  </si>
-  <si>
-    <t>The two opposing Kings at the heart of this Kingdom are the King of Focus and the King of Distraction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. King Visionary - The King Visionary is the one who has the ability to see the big picture and come up with creative solutions to problems. He or she is able to think outside of the box and come up with innovative ideas that can help move the kingdom forward.
-2. King Strategist - The King Strategist is the one who can take those creative ideas and turn them into actionable plans that will help achieve the kingdom's goals. He or she is able to analyze data, develop strategies, and create plans that will help bring success to the kingdom.</t>
-  </si>
-  <si>
-    <t>The two opposing kings at the heart of this kingdom are King Arthur and Mordred.</t>
-  </si>
-  <si>
-    <t>The two complementary Kings at the heart of this Kingdom are focus and innovation. Focus is about saying no to the many good ideas that come up, while innovation is about saying yes to the one great idea that stands out. Together, these two Kings can help create a successful and prosperous kingdom.</t>
-  </si>
-  <si>
-    <t>The two creative Kings at the heart of this Kingdom are King Art and King Innovation. Both of these Kings are focused on creating a vibrant and prosperous Kingdom through their creative endeavors. They strive to bring new ideas, products, and services to the people of the Kingdom, while also encouraging collaboration and innovation among its citizens. Together, they work to ensure that the Kingdom is a place where creativity is celebrated and rewarded.</t>
-  </si>
-  <si>
-    <t>The two opposing Kings at the heart of this Kingdom are King Focus and King Scatter.</t>
-  </si>
-  <si>
-    <t>The two creative Kings at the heart of this Kingdom are focus and follow-through. Focus is essential for staying on track and making sure that all of your energy is directed towards achieving your goals. Follow-through is equally important, as it ensures that you actually complete the tasks you set out to do. Together, these two Kings will help you to create a successful and productive Kingdom.</t>
-  </si>
-  <si>
-    <t>The two opposing Kings at the heart of this Kingdom are King Arthur and Mordred. The primary, overarching goal of this Kingdom is to restore peace and stability to the land.</t>
-  </si>
-  <si>
-    <t>The two creative Kings at the heart of this Kingdom are King Art and King Craft. Their primary, overarching goal is to foster creativity and innovation in their kingdom.</t>
+    <t>In the Kingdom of Innovation, there are two opposing Kings - King Yes and King No. King Yes is the ruler of all the good ideas that come to mind, while King No is the master of focus and innovation. The people of this Kingdom understand that saying yes to every idea will lead to chaos and lack of progress. Instead, they follow the wise words of Steve Jobs and choose carefully which ideas to pursue. They know that innovation requires saying no to a thousand things, and that's what makes their Kingdom thrive.</t>
+  </si>
+  <si>
+    <t>The two complementary Kings at the heart of this Kingdom are Focus and Innovation. They work hand in hand to ensure that the Kingdom thrives and grows. Focus helps to prioritize and choose the most important tasks, while Innovation encourages new ideas and ways of doing things. Together, they create a balance that allows for both stability and progress. As Steve Jobs said, saying "no" to many good ideas is just as important as saying "yes" to the right ones.</t>
+  </si>
+  <si>
+    <t>The two creative Kings at the heart of this Kingdom are Focus and Innovation. They work hand in hand to ensure that only the best ideas are pursued and executed, while the rest are left behind. Focus helps to prioritize and concentrate on what truly matters, while Innovation encourages thinking outside the box and taking risks to achieve greatness. Together, they create a powerful force that drives progress and success in this Kingdom.</t>
+  </si>
+  <si>
+    <t>In the heart of this Kingdom, there are two opposing Kings who rule with vastly different ideologies. The first King is a ruthless conqueror who believes in expanding his territory at any cost. He is known for his aggressive tactics and willingness to go to war to achieve his goals. The second King, on the other hand, is a wise and diplomatic ruler who values peace and prosperity above all else. He believes in building strong alliances and using negotiation to resolve conflicts.
+These two Kings have been locked in a power struggle for years, each vying for control over the Kingdom. The first King sees the second as weak and ineffective, while the second views the first as reckless and dangerous. Despite their differences, both Kings are skilled strategists who understand the importance of choosing what not to do in order to achieve their objectives.
+As tensions continue to rise between these two opposing forces, it remains to be seen which King will emerge victorious and shape the future of this Kingdom.</t>
+  </si>
+  <si>
+    <t>In the heart of this Kingdom, there are two creative Kings who rule with strategic prowess. The first is King Imagination, whose mind is a boundless canvas of ideas and possibilities. He inspires his people to dream big and think outside the box, always pushing the boundaries of what is possible.
+The second King is King Focus, who knows that true success comes from choosing what not to do. He helps his people prioritize their goals and stay on track, never losing sight of their ultimate objectives. Together, these two Kings create a powerful synergy that drives the Kingdom forward towards greatness.</t>
+  </si>
+  <si>
+    <t>In the Kingdom of Innovation, there were two opposing Kings - King Creativity and King Focus. 
+King Creativity was a flamboyant ruler, always coming up with new and exciting ideas. He was loved by his subjects for his boundless imagination and ability to think outside the box. However, he often lacked direction and focus, jumping from one idea to the next without ever fully realizing any of them.
+On the other hand, King Focus was a stern and disciplined leader. He believed in setting clear goals and working tirelessly towards achieving them. His subjects respected him for his unwavering determination and ability to stay on track. However, he sometimes struggled with creativity, finding it difficult to think beyond what was already known.
+Despite their differences, both Kings were essential to the Kingdom's success. Without King Creativity's innovative ideas, there would be no progress or growth. And without King Focus's discipline and direction, those ideas would never come to fruition.
+The challenge for the Kingdom's citizens was finding a balance between these two opposing forces - harnessing the power of creativity while staying focused on achieving their goals. It was a delicate dance that required constant attention and effort but ultimately led to great success and prosperity for all who lived in the Kingdom of Innovation.</t>
+  </si>
+  <si>
+    <t>The two creative Kings at the heart of this Kingdom are Focus and Discipline. They work hand in hand to ensure that the Kingdom runs smoothly and efficiently. Focus helps to prioritize tasks and ideas, while Discipline ensures that they are executed with precision and excellence. Together, they create a culture of innovation and success, where only the best ideas are pursued and brought to fruition. Like Steve Jobs, the Kingdom understands that saying no to some ideas is necessary in order to achieve greatness in others.</t>
+  </si>
+  <si>
+    <t>In the Kingdom of Aranthia, there were two opposing Kings who ruled over the land. King Aric, a fierce and ambitious ruler who sought to expand his kingdom through conquest and domination. He was known for his military prowess and strategic mind, always seeking to outmaneuver his enemies on the battlefield.
+On the other side of the kingdom was King Eron, a wise and just ruler who believed in diplomacy and cooperation. He sought to build alliances with neighboring kingdoms and promote trade and commerce within his own borders. He was beloved by his people for his fairness and compassion.
+The two Kings had been at odds for years, each seeking to gain an advantage over the other. Their strategies were vastly different, with King Aric favoring brute force while King Eron preferred negotiation and compromise.
+Despite their differences, both Kings shared a common goal: to make their kingdom prosperous and powerful. They each had their own unique vision for how this could be achieved, but only time would tell which strategy would ultimately prevail in the end.</t>
+  </si>
+  <si>
+    <t>In the heart of this Kingdom, there are two creative Kings who rule with passion and innovation. The first King is known for his visionary ideas and ability to think outside the box. He is a master of creativity and constantly pushes the boundaries of what is possible. The second King is a strategic genius, always thinking several steps ahead and devising plans to achieve success. Together, these two Kings form an unbeatable team, leading their Kingdom to new heights of creativity and success.</t>
+  </si>
+  <si>
+    <t>In the Kingdom of Clarity, there were two opposing Kings who ruled with vastly different styles. King Impulse was impulsive and quick to act on every idea that crossed his mind or desk. He believed in taking risks and seizing opportunities as they presented themselves, without much thought for long-term consequences.
+On the other hand, King Strategy was a thoughtful and deliberate ruler. He believed in achieving strategic focus by carefully considering all options and weighing the pros and cons before making any decisions. He knew that success required a clear vision and a well-thought-out plan.
+The two Kings often clashed over their differing approaches to ruling the Kingdom. King Impulse accused King Strategy of being too cautious and slow-moving, while King Strategy criticized King Impulse for being reckless and short-sighted.
+Despite their differences, both Kings recognized the importance of achieving strategic focus in order to ensure the long-term success of their Kingdom. They eventually learned to work together, combining their strengths to create a balanced approach that allowed them to make smart decisions while still seizing opportunities when they arose.</t>
+  </si>
+  <si>
+    <t>The two creative Kings at the heart of this Kingdom are Patience and Discernment. Patience allows for ideas to fully develop and mature before taking action, while Discernment helps to filter out ideas that may not align with the overall strategic focus. By exercising these two qualities, one can ensure that their actions are purposeful and effective in achieving their goals.</t>
+  </si>
+  <si>
+    <t>At the heart of this Kingdom, two opposing Kings reign supreme - King Prosperity and King Equality. 
+King Prosperity is driven by the desire to accumulate wealth and power for himself and his loyal followers. He believes that success is measured by material possessions and that those who have more are inherently better than those who have less. His ultimate goal is to create a society where the rich get richer, and the poor are left to fend for themselves.
+On the other hand, King Equality believes in creating a fair and just society where everyone has equal opportunities regardless of their background or social status. He believes that success should be measured by one's contributions to society rather than their wealth or status. His ultimate goal is to create a world where everyone has access to education, healthcare, and basic human rights.
+These two opposing Kings are constantly at odds with each other, each trying to gain more power and influence over the Kingdom. The people of the Kingdom are torn between these two ideologies, unsure which path will lead them towards a better future.</t>
+  </si>
+  <si>
+    <t>At the heart of this Kingdom are two creative Kings: Imagination and Innovation. Their big goal is to inspire and create new ideas that will shape the future of the Kingdom. Imagination reigns over the realm of dreams, where anything is possible and ideas are born. Innovation, on the other hand, rules over the realm of action, where those ideas are brought to life through experimentation and implementation. Together, they work towards a common goal of pushing boundaries and creating a better world for all who inhabit it.</t>
+  </si>
+  <si>
+    <t>In the Kingdom of Aranthia, there are two opposing Kings who have been at the heart of a long-standing conflict. King Alder, the ruler of the northern territories, is known for his strict adherence to tradition and his unwavering commitment to maintaining the status quo. He believes that change is dangerous and that it is better to stick with what has worked in the past.
+On the other hand, King Cedric, who rules over the southern lands, is a progressive leader who believes in innovation and progress. He sees change as an opportunity for growth and development and is always looking for ways to improve his kingdom.
+The conflict between these two kings has been simmering for years, with each side accusing the other of being stubborn and unwilling to compromise. As tensions rise and battle lines are drawn, it seems that only one king can emerge victorious.
+As a creative writer, I am always focused on following through on my big projects while also exploring new ideas and concepts. I believe that it's important to stay open-minded and flexible while also remaining committed to my goals.</t>
+  </si>
+  <si>
+    <t>As a language model AI, I do not have personal projects or focus on a big one. However, I can help you with creative writing prompts or assist you in generating ideas for your writing projects. Just let me know how I can be of assistance.</t>
+  </si>
+  <si>
+    <t>In the Kingdom of Aranthia, there are two opposing Kings who have been at the heart of the kingdom's conflicts for generations. King Alistair, the ruler of the northern territories, is a fierce and ambitious leader who seeks to expand his kingdom's borders and increase his power. He is known for his military prowess and strategic mind, but also for his ruthless tactics and lack of mercy towards his enemies.
+On the other hand, King Edmund, the ruler of the southern territories, is a wise and just leader who values peace and diplomacy above all else. He believes in working together with neighboring kingdoms to build alliances and strengthen their collective power. However, some see him as weak-willed and indecisive, which has led to tensions between him and King Alistair.
+At the heart of this Kingdom lies a struggle for power between these two opposing Kings. While King Alistair seeks to dominate through force, King Edmund believes in cooperation and mutual benefit. The primary goal of both Kings is to secure their own power and influence over Aranthia, but their methods could not be more different.</t>
+  </si>
+  <si>
+    <t>As an AI language model, I do not have a primary, overarching goal. However, I can help you create a story based on the prompt you provided.
+Once upon a time, in a far-off kingdom, there were two creative Kings who ruled the land. King Art and King Music were their names, and they were both passionate about their respective crafts.
+King Art was a master painter and sculptor. He spent his days in his studio, creating beautiful works of art that adorned the walls of the castle and brought joy to all who saw them. His paintings captured the beauty of nature and the human form in stunning detail, while his sculptures seemed to come alive with every curve and line.
+King Music was a gifted musician who could play any instrument he picked up. He spent his days composing new songs and performing for the people of the kingdom. His music was so enchanting that it could make even the grumpiest person smile and dance along.
+Together, King Art and King Music brought beauty and joy to their kingdom. They worked tirelessly to inspire creativity in others and fostered a culture of artistic expression throughout their land.
+Their primary goal was to create a world where everyone had access to art and music, regardless of their social status or background. They believed that creativity was essential for human happiness and well-being, and they dedicated their lives to spreading this message far and wide.
+And so, under the guidance of these two creative Kings, the kingdom flourished with art galleries, concert halls, theaters, and museums. People from all over came to visit this magical land where creativity reigned supreme.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="14"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -352,7 +334,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,15 +618,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110" zoomScaleNormal="100">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A22:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="8.85546875" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
@@ -655,10 +637,11 @@
     <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.95" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -673,7 +656,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" ht="18.95" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -688,7 +671,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="18.95" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -703,9 +686,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -868,304 +855,223 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" ht="135" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" ht="90.95" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" ht="105" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2">
-        <v>9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="2">
-        <v>9</v>
-      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" ht="195" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="2">
-        <v>10</v>
-      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" ht="75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2">
-        <v>9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="2">
-        <v>9</v>
-      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" ht="120" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>9</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" ht="45" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="2">
-        <v>9</v>
-      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="2">
-        <v>9</v>
-      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" ht="90" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="2">
-        <v>9</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="2">
-        <v>9</v>
-      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" ht="60" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="2">
-        <v>9</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="2">
-        <v>9</v>
-      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" ht="60" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2">
-        <v>10</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="2">
-        <v>10</v>
-      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="I29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="75" zoomScaleNormal="100">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="8.85546875" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.95" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="18.95" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="18.95" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="18.95" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1173,14 +1079,18 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1283,183 +1193,183 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" ht="57" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" ht="62.1" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" ht="18.95" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" ht="187.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" ht="75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" ht="131.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" ht="56.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" ht="93.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" ht="37.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" ht="56.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" ht="37.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1467,56 +1377,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="8.85546875" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="45" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="52.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.95" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="18.95" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="18.95" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="18.95" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1527,9 +1438,13 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1639,139 +1554,139 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" ht="66" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" ht="168.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" ht="75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" ht="131.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" ht="56.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" ht="75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" ht="37.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" ht="56.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" ht="37.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
